--- a/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW12.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW12.xlsx
@@ -1889,37 +1889,37 @@
         <v>47.0</v>
       </c>
       <c r="B48" t="n">
-        <v>2.4617999990760002</v>
+        <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>2.4617999990760002</v>
+        <v>0.0</v>
       </c>
       <c r="D48" t="n">
-        <v>2.4617999990760002</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n">
-        <v>2.4617999990760002</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n">
-        <v>2.4617999990760002</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n">
-        <v>2.4617999990760002</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n">
-        <v>2.4617999990760002</v>
+        <v>0.0</v>
       </c>
       <c r="I48" t="n">
-        <v>2.4617999990760002</v>
+        <v>0.0</v>
       </c>
       <c r="J48" t="n">
-        <v>2.4617999990760002</v>
+        <v>0.0</v>
       </c>
       <c r="K48" t="n">
-        <v>2.4617999990760002</v>
+        <v>0.0</v>
       </c>
       <c r="L48" t="n">
-        <v>2.4617999990760002</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
@@ -4853,37 +4853,37 @@
         <v>125.0</v>
       </c>
       <c r="B126" t="n">
-        <v>0.6450499999999999</v>
+        <v>0.0</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6450499999999999</v>
+        <v>0.0</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6450499999999999</v>
+        <v>0.0</v>
       </c>
       <c r="E126" t="n">
-        <v>0.6450499999999999</v>
+        <v>0.0</v>
       </c>
       <c r="F126" t="n">
-        <v>0.6450499999999999</v>
+        <v>0.0</v>
       </c>
       <c r="G126" t="n">
-        <v>0.6450499999999999</v>
+        <v>0.0</v>
       </c>
       <c r="H126" t="n">
-        <v>0.6450499999999999</v>
+        <v>0.0</v>
       </c>
       <c r="I126" t="n">
-        <v>0.6450499999999999</v>
+        <v>0.0</v>
       </c>
       <c r="J126" t="n">
-        <v>0.6450499999999999</v>
+        <v>0.0</v>
       </c>
       <c r="K126" t="n">
-        <v>0.6450499999999999</v>
+        <v>0.0</v>
       </c>
       <c r="L126" t="n">
-        <v>0.6450499999999999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="127">
@@ -6943,37 +6943,37 @@
         <v>180.0</v>
       </c>
       <c r="B181" t="n">
-        <v>3.9820144732830003</v>
+        <v>0.0</v>
       </c>
       <c r="C181" t="n">
-        <v>3.9820144732830003</v>
+        <v>0.0</v>
       </c>
       <c r="D181" t="n">
-        <v>3.9820144732830003</v>
+        <v>0.0</v>
       </c>
       <c r="E181" t="n">
-        <v>3.9820144732830003</v>
+        <v>0.0</v>
       </c>
       <c r="F181" t="n">
-        <v>3.9820144732830003</v>
+        <v>0.0</v>
       </c>
       <c r="G181" t="n">
-        <v>3.9820144732830003</v>
+        <v>0.0</v>
       </c>
       <c r="H181" t="n">
-        <v>3.9820144732830003</v>
+        <v>0.0</v>
       </c>
       <c r="I181" t="n">
-        <v>3.9820144732830003</v>
+        <v>0.0</v>
       </c>
       <c r="J181" t="n">
-        <v>3.9820144732830003</v>
+        <v>0.0</v>
       </c>
       <c r="K181" t="n">
-        <v>3.9820144732830003</v>
+        <v>0.0</v>
       </c>
       <c r="L181" t="n">
-        <v>3.9820144732830003</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="182">
@@ -7399,37 +7399,37 @@
         <v>192.0</v>
       </c>
       <c r="B193" t="n">
-        <v>2.8140749998514996</v>
+        <v>0.0</v>
       </c>
       <c r="C193" t="n">
-        <v>2.8140749998514996</v>
+        <v>0.0</v>
       </c>
       <c r="D193" t="n">
-        <v>2.8140749998514996</v>
+        <v>0.0</v>
       </c>
       <c r="E193" t="n">
-        <v>2.8140749998514996</v>
+        <v>0.0</v>
       </c>
       <c r="F193" t="n">
-        <v>2.8140749998514996</v>
+        <v>0.0</v>
       </c>
       <c r="G193" t="n">
-        <v>2.8140749998514996</v>
+        <v>0.0</v>
       </c>
       <c r="H193" t="n">
-        <v>2.8140749998514996</v>
+        <v>0.0</v>
       </c>
       <c r="I193" t="n">
-        <v>2.8140749998514996</v>
+        <v>0.0</v>
       </c>
       <c r="J193" t="n">
-        <v>2.8140749998514996</v>
+        <v>0.0</v>
       </c>
       <c r="K193" t="n">
-        <v>2.8140749998514996</v>
+        <v>0.0</v>
       </c>
       <c r="L193" t="n">
-        <v>2.8140749998514996</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="194">
@@ -7969,37 +7969,37 @@
         <v>207.0</v>
       </c>
       <c r="B208" t="n">
-        <v>0.298399999888</v>
+        <v>0.0</v>
       </c>
       <c r="C208" t="n">
-        <v>0.298399999888</v>
+        <v>0.0</v>
       </c>
       <c r="D208" t="n">
-        <v>0.298399999888</v>
+        <v>0.0</v>
       </c>
       <c r="E208" t="n">
-        <v>0.298399999888</v>
+        <v>0.0</v>
       </c>
       <c r="F208" t="n">
-        <v>0.298399999888</v>
+        <v>0.0</v>
       </c>
       <c r="G208" t="n">
-        <v>0.298399999888</v>
+        <v>0.0</v>
       </c>
       <c r="H208" t="n">
-        <v>0.298399999888</v>
+        <v>0.0</v>
       </c>
       <c r="I208" t="n">
-        <v>0.298399999888</v>
+        <v>0.0</v>
       </c>
       <c r="J208" t="n">
-        <v>0.298399999888</v>
+        <v>0.0</v>
       </c>
       <c r="K208" t="n">
-        <v>0.298399999888</v>
+        <v>0.0</v>
       </c>
       <c r="L208" t="n">
-        <v>0.298399999888</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="209">
@@ -8805,37 +8805,37 @@
         <v>229.0</v>
       </c>
       <c r="B230" t="n">
-        <v>1.3034999997360002</v>
+        <v>0.0</v>
       </c>
       <c r="C230" t="n">
-        <v>1.3034999997360002</v>
+        <v>0.0</v>
       </c>
       <c r="D230" t="n">
-        <v>1.3034999997360002</v>
+        <v>0.0</v>
       </c>
       <c r="E230" t="n">
-        <v>1.3034999997360002</v>
+        <v>0.0</v>
       </c>
       <c r="F230" t="n">
-        <v>1.3034999997360002</v>
+        <v>0.0</v>
       </c>
       <c r="G230" t="n">
-        <v>1.3034999997360002</v>
+        <v>0.0</v>
       </c>
       <c r="H230" t="n">
-        <v>1.3034999997360002</v>
+        <v>0.0</v>
       </c>
       <c r="I230" t="n">
-        <v>1.3034999997360002</v>
+        <v>0.0</v>
       </c>
       <c r="J230" t="n">
-        <v>1.3034999997360002</v>
+        <v>0.0</v>
       </c>
       <c r="K230" t="n">
-        <v>1.3034999997360002</v>
+        <v>0.0</v>
       </c>
       <c r="L230" t="n">
-        <v>1.3034999997360002</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="231">
@@ -9679,37 +9679,37 @@
         <v>252.0</v>
       </c>
       <c r="B253" t="n">
-        <v>0.6661421055519999</v>
+        <v>0.0</v>
       </c>
       <c r="C253" t="n">
-        <v>0.6661421055519999</v>
+        <v>0.0</v>
       </c>
       <c r="D253" t="n">
-        <v>0.6661421055519999</v>
+        <v>0.0</v>
       </c>
       <c r="E253" t="n">
-        <v>0.6661421055519999</v>
+        <v>0.0</v>
       </c>
       <c r="F253" t="n">
-        <v>0.6661421055519999</v>
+        <v>0.0</v>
       </c>
       <c r="G253" t="n">
-        <v>0.6661421055519999</v>
+        <v>0.0</v>
       </c>
       <c r="H253" t="n">
-        <v>0.6661421055519999</v>
+        <v>0.0</v>
       </c>
       <c r="I253" t="n">
-        <v>0.6661421055519999</v>
+        <v>0.0</v>
       </c>
       <c r="J253" t="n">
-        <v>0.6661421055519999</v>
+        <v>0.0</v>
       </c>
       <c r="K253" t="n">
-        <v>0.6661421055519999</v>
+        <v>0.0</v>
       </c>
       <c r="L253" t="n">
-        <v>0.6661421055519999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="254">
@@ -10249,37 +10249,37 @@
         <v>267.0</v>
       </c>
       <c r="B268" t="n">
-        <v>0.9033750001980001</v>
+        <v>0.0</v>
       </c>
       <c r="C268" t="n">
-        <v>0.9033750001980001</v>
+        <v>0.0</v>
       </c>
       <c r="D268" t="n">
-        <v>0.9033750001980001</v>
+        <v>0.0</v>
       </c>
       <c r="E268" t="n">
-        <v>0.9033750001980001</v>
+        <v>0.0</v>
       </c>
       <c r="F268" t="n">
-        <v>0.9033750001980001</v>
+        <v>0.0</v>
       </c>
       <c r="G268" t="n">
-        <v>0.9033750001980001</v>
+        <v>0.0</v>
       </c>
       <c r="H268" t="n">
-        <v>0.9033750001980001</v>
+        <v>0.0</v>
       </c>
       <c r="I268" t="n">
-        <v>0.9033750001980001</v>
+        <v>0.0</v>
       </c>
       <c r="J268" t="n">
-        <v>0.9033750001980001</v>
+        <v>0.0</v>
       </c>
       <c r="K268" t="n">
-        <v>0.9033750001980001</v>
+        <v>0.0</v>
       </c>
       <c r="L268" t="n">
-        <v>0.9033750001980001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="269">
@@ -11807,37 +11807,37 @@
         <v>308.0</v>
       </c>
       <c r="B309" t="n">
-        <v>5.019690791115</v>
+        <v>0.0</v>
       </c>
       <c r="C309" t="n">
-        <v>5.019690791115</v>
+        <v>0.0</v>
       </c>
       <c r="D309" t="n">
-        <v>5.019690791115</v>
+        <v>0.0</v>
       </c>
       <c r="E309" t="n">
-        <v>5.019690791115</v>
+        <v>0.0</v>
       </c>
       <c r="F309" t="n">
-        <v>5.019690791115</v>
+        <v>0.0</v>
       </c>
       <c r="G309" t="n">
-        <v>5.019690791115</v>
+        <v>0.0</v>
       </c>
       <c r="H309" t="n">
-        <v>5.019690791115</v>
+        <v>0.0</v>
       </c>
       <c r="I309" t="n">
-        <v>5.019690791115</v>
+        <v>0.0</v>
       </c>
       <c r="J309" t="n">
-        <v>5.019690791115</v>
+        <v>0.0</v>
       </c>
       <c r="K309" t="n">
-        <v>5.019690791115</v>
+        <v>0.0</v>
       </c>
       <c r="L309" t="n">
-        <v>5.019690791115</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="310">
@@ -16481,37 +16481,37 @@
         <v>431.0</v>
       </c>
       <c r="B432" t="n">
-        <v>2.526666666533333</v>
+        <v>0.0</v>
       </c>
       <c r="C432" t="n">
-        <v>2.526666666533333</v>
+        <v>0.0</v>
       </c>
       <c r="D432" t="n">
-        <v>2.526666666533333</v>
+        <v>0.0</v>
       </c>
       <c r="E432" t="n">
-        <v>2.526666666533333</v>
+        <v>0.0</v>
       </c>
       <c r="F432" t="n">
-        <v>2.526666666533333</v>
+        <v>0.0</v>
       </c>
       <c r="G432" t="n">
-        <v>2.526666666533333</v>
+        <v>0.0</v>
       </c>
       <c r="H432" t="n">
-        <v>2.526666666533333</v>
+        <v>0.0</v>
       </c>
       <c r="I432" t="n">
-        <v>2.526666666533333</v>
+        <v>0.0</v>
       </c>
       <c r="J432" t="n">
-        <v>2.526666666533333</v>
+        <v>0.0</v>
       </c>
       <c r="K432" t="n">
-        <v>2.526666666533333</v>
+        <v>0.0</v>
       </c>
       <c r="L432" t="n">
-        <v>2.526666666533333</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="433">
@@ -16747,37 +16747,37 @@
         <v>438.0</v>
       </c>
       <c r="B439" t="n">
-        <v>2.7856499998529998</v>
+        <v>0.0</v>
       </c>
       <c r="C439" t="n">
-        <v>2.7856499998529998</v>
+        <v>0.0</v>
       </c>
       <c r="D439" t="n">
-        <v>2.7856499998529998</v>
+        <v>0.0</v>
       </c>
       <c r="E439" t="n">
-        <v>2.7856499998529998</v>
+        <v>0.0</v>
       </c>
       <c r="F439" t="n">
-        <v>2.7856499998529998</v>
+        <v>0.0</v>
       </c>
       <c r="G439" t="n">
-        <v>2.7856499998529998</v>
+        <v>0.0</v>
       </c>
       <c r="H439" t="n">
-        <v>2.7856499998529998</v>
+        <v>0.0</v>
       </c>
       <c r="I439" t="n">
-        <v>2.7856499998529998</v>
+        <v>0.0</v>
       </c>
       <c r="J439" t="n">
-        <v>2.7856499998529998</v>
+        <v>0.0</v>
       </c>
       <c r="K439" t="n">
-        <v>2.7856499998529998</v>
+        <v>0.0</v>
       </c>
       <c r="L439" t="n">
-        <v>2.7856499998529998</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="440">
@@ -17089,37 +17089,37 @@
         <v>447.0</v>
       </c>
       <c r="B448" t="n">
-        <v>0.9187499997549999</v>
+        <v>0.0</v>
       </c>
       <c r="C448" t="n">
-        <v>0.9187499997549999</v>
+        <v>0.0</v>
       </c>
       <c r="D448" t="n">
-        <v>0.9187499997549999</v>
+        <v>0.0</v>
       </c>
       <c r="E448" t="n">
-        <v>0.9187499997549999</v>
+        <v>0.0</v>
       </c>
       <c r="F448" t="n">
-        <v>0.9187499997549999</v>
+        <v>0.0</v>
       </c>
       <c r="G448" t="n">
-        <v>0.9187499997549999</v>
+        <v>0.0</v>
       </c>
       <c r="H448" t="n">
-        <v>0.9187499997549999</v>
+        <v>0.0</v>
       </c>
       <c r="I448" t="n">
-        <v>0.9187499997549999</v>
+        <v>0.0</v>
       </c>
       <c r="J448" t="n">
-        <v>0.9187499997549999</v>
+        <v>0.0</v>
       </c>
       <c r="K448" t="n">
-        <v>0.9187499997549999</v>
+        <v>0.0</v>
       </c>
       <c r="L448" t="n">
-        <v>0.9187499997549999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="449">
@@ -17887,37 +17887,37 @@
         <v>468.0</v>
       </c>
       <c r="B469" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
       <c r="C469" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
       <c r="D469" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
       <c r="E469" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
       <c r="F469" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
       <c r="G469" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
       <c r="H469" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
       <c r="I469" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
       <c r="J469" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
       <c r="K469" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
       <c r="L469" t="n">
-        <v>0.2934250000323333</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="470">
@@ -19559,37 +19559,37 @@
         <v>512.0</v>
       </c>
       <c r="B513" t="n">
-        <v>0.6661421055519999</v>
+        <v>0.0</v>
       </c>
       <c r="C513" t="n">
-        <v>0.6661421055519999</v>
+        <v>0.0</v>
       </c>
       <c r="D513" t="n">
-        <v>0.6661421055519999</v>
+        <v>0.0</v>
       </c>
       <c r="E513" t="n">
-        <v>0.6661421055519999</v>
+        <v>0.0</v>
       </c>
       <c r="F513" t="n">
-        <v>0.6661421055519999</v>
+        <v>0.0</v>
       </c>
       <c r="G513" t="n">
-        <v>0.6661421055519999</v>
+        <v>0.0</v>
       </c>
       <c r="H513" t="n">
-        <v>0.6661421055519999</v>
+        <v>0.0</v>
       </c>
       <c r="I513" t="n">
-        <v>0.6661421055519999</v>
+        <v>0.0</v>
       </c>
       <c r="J513" t="n">
-        <v>0.6661421055519999</v>
+        <v>0.0</v>
       </c>
       <c r="K513" t="n">
-        <v>0.6661421055519999</v>
+        <v>0.0</v>
       </c>
       <c r="L513" t="n">
-        <v>0.6661421055519999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="514">
@@ -19939,37 +19939,37 @@
         <v>522.0</v>
       </c>
       <c r="B523" t="n">
-        <v>0.894250000196</v>
+        <v>0.0</v>
       </c>
       <c r="C523" t="n">
-        <v>0.894250000196</v>
+        <v>0.0</v>
       </c>
       <c r="D523" t="n">
-        <v>0.894250000196</v>
+        <v>0.0</v>
       </c>
       <c r="E523" t="n">
-        <v>0.894250000196</v>
+        <v>0.0</v>
       </c>
       <c r="F523" t="n">
-        <v>0.894250000196</v>
+        <v>0.0</v>
       </c>
       <c r="G523" t="n">
-        <v>0.894250000196</v>
+        <v>0.0</v>
       </c>
       <c r="H523" t="n">
-        <v>0.894250000196</v>
+        <v>0.0</v>
       </c>
       <c r="I523" t="n">
-        <v>0.894250000196</v>
+        <v>0.0</v>
       </c>
       <c r="J523" t="n">
-        <v>0.894250000196</v>
+        <v>0.0</v>
       </c>
       <c r="K523" t="n">
-        <v>0.894250000196</v>
+        <v>0.0</v>
       </c>
       <c r="L523" t="n">
-        <v>0.894250000196</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="524">
@@ -21231,37 +21231,37 @@
         <v>556.0</v>
       </c>
       <c r="B557" t="n">
-        <v>4.172349998725999</v>
+        <v>0.0</v>
       </c>
       <c r="C557" t="n">
-        <v>4.172349998725999</v>
+        <v>0.0</v>
       </c>
       <c r="D557" t="n">
-        <v>4.172349998725999</v>
+        <v>0.0</v>
       </c>
       <c r="E557" t="n">
-        <v>4.172349998725999</v>
+        <v>0.0</v>
       </c>
       <c r="F557" t="n">
-        <v>4.172349998725999</v>
+        <v>0.0</v>
       </c>
       <c r="G557" t="n">
-        <v>4.172349998725999</v>
+        <v>0.0</v>
       </c>
       <c r="H557" t="n">
-        <v>4.172349998725999</v>
+        <v>0.0</v>
       </c>
       <c r="I557" t="n">
-        <v>4.172349998725999</v>
+        <v>0.0</v>
       </c>
       <c r="J557" t="n">
-        <v>4.172349998725999</v>
+        <v>0.0</v>
       </c>
       <c r="K557" t="n">
-        <v>4.172349998725999</v>
+        <v>0.0</v>
       </c>
       <c r="L557" t="n">
-        <v>4.172349998725999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="558">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>1.0371236843729998</v>
+        <v>0.0</v>
       </c>
       <c r="C609" t="n">
-        <v>1.0371236843729998</v>
+        <v>0.0</v>
       </c>
       <c r="D609" t="n">
-        <v>1.0371236843729998</v>
+        <v>0.0</v>
       </c>
       <c r="E609" t="n">
-        <v>1.0371236843729998</v>
+        <v>0.0</v>
       </c>
       <c r="F609" t="n">
-        <v>1.0371236843729998</v>
+        <v>0.0</v>
       </c>
       <c r="G609" t="n">
-        <v>1.0371236843729998</v>
+        <v>0.0</v>
       </c>
       <c r="H609" t="n">
-        <v>1.0371236843729998</v>
+        <v>0.0</v>
       </c>
       <c r="I609" t="n">
-        <v>1.0371236843729998</v>
+        <v>0.0</v>
       </c>
       <c r="J609" t="n">
-        <v>1.0371236843729998</v>
+        <v>0.0</v>
       </c>
       <c r="K609" t="n">
-        <v>1.0371236843729998</v>
+        <v>0.0</v>
       </c>
       <c r="L609" t="n">
-        <v>1.0371236843729998</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="610">
@@ -23663,37 +23663,37 @@
         <v>620.0</v>
       </c>
       <c r="B621" t="n">
-        <v>3.6500000008</v>
+        <v>0.0</v>
       </c>
       <c r="C621" t="n">
-        <v>3.6500000008</v>
+        <v>0.0</v>
       </c>
       <c r="D621" t="n">
-        <v>3.6500000008</v>
+        <v>0.0</v>
       </c>
       <c r="E621" t="n">
-        <v>3.6500000008</v>
+        <v>0.0</v>
       </c>
       <c r="F621" t="n">
-        <v>3.6500000008</v>
+        <v>0.0</v>
       </c>
       <c r="G621" t="n">
-        <v>3.6500000008</v>
+        <v>0.0</v>
       </c>
       <c r="H621" t="n">
-        <v>3.6500000008</v>
+        <v>0.0</v>
       </c>
       <c r="I621" t="n">
-        <v>3.6500000008</v>
+        <v>0.0</v>
       </c>
       <c r="J621" t="n">
-        <v>3.6500000008</v>
+        <v>0.0</v>
       </c>
       <c r="K621" t="n">
-        <v>3.6500000008</v>
+        <v>0.0</v>
       </c>
       <c r="L621" t="n">
-        <v>3.6500000008</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="622">
